--- a/data/trans_bre/P27A_2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P27A_2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,17 +652,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,23</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,8</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -640,20 +672,40 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>76,71%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>61,77%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>94,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -668,17 +720,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,57; 24,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,1; 25,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,69; 27,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,20 +740,40 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,51; 198,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,57; 138,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,54; 227,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,17 +792,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -740,20 +812,40 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,74%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-3,36%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>62,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -768,17 +860,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 18,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 7,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,9; 24,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,20 +880,40 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 111,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,47; 32,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,04; 129,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -820,17 +932,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,20 +952,40 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>23,3%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>41,85%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,17 +1000,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 15,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,7; 20,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 16,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,20 +1020,40 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,48; 76,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,1; 83,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 56,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,17 +1072,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,71</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,39</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -940,20 +1092,40 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>83,04%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>44,7%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>25,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -968,17 +1140,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,32; 23,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,13; 20,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 15,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,20 +1160,40 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,57; 146,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,17; 80,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,63; 55,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1020,17 +1212,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>14,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1040,20 +1232,40 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>46,71%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>49,94%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>52,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1068,17 +1280,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 18,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,04; 22,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,73; 23,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,20 +1300,40 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,34; 105,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,29; 91,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,1; 100,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1120,17 +1352,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>22,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,45</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>19,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1140,20 +1372,40 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>136,06%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>58,99%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>77,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1168,17 +1420,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,4; 31,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,8; 20,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,65; 29,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,20 +1440,40 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>51,26; 259,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,9; 135,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,08; 153,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1220,17 +1492,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,61</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1240,20 +1512,40 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>61,2%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>39,67%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>48,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1268,17 +1560,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,57; 16,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,18; 14,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,27; 17,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,22 +1580,49 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>36,82; 87,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>24,94; 58,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>31,31; 67,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
